--- a/canada/2.british-columbia/victoria/17-bc-brake-service.xlsx
+++ b/canada/2.british-columbia/victoria/17-bc-brake-service.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="1134">
   <si>
     <t>Business URL</t>
   </si>
@@ -574,6 +574,120 @@
     <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/jas-toora-automotive-transmission-services-ltd-0047-97</t>
   </si>
   <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/cowichan-auto-repair-and-detailing-0047-90011697</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/vancouver-transmission-ltd-0037-111691</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/kingsway-autopro-napa-0037-128127</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/budget-brake-muffler-0037-104390</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/km-auto-repairs-body-sales-0047-36396</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/midas-auto-service-experts-0037-2401098</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/canada/profile/auto-repair/js-performance-ltd-0037-1257256</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-maintenance/rg-diagnostics-0037-1272706</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/brake-service/apollo-muffler-speedy-brake-centre-0037-142442</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/auto-maintenance/auto-fierce-automotive-0037-1266298</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/coquitlam/profile/auto-repair/budget-brake-muffler-0037-104401</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/budget-brake-muffler-0037-104377</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/brake-service/cloverdale-alignment-0037-153525</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/rand-automotive-0047-7959</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-repair/budget-brake-muffler-auto-centres-0037-104398</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/midas-auto-service-experts-0037-2401097</t>
+  </si>
+  <si>
+    <t>https://adclick.g.doubleclick.net/pcs/click?xai=AKAOjstqRWY5tnvTcB8MAAHj9p3eauBT77xRnmGYqwfOMVXjZCteCHLSmyFvNQre0_a80r58P9sIYplyRPikEtGn0tSIHDlm0QGSDwibGw72N9ZWxazZJPS61CDOlBd1A32vvu76FzIoQIyAWDL-HUjDqtpEnB4Gv1EeoYvCxFpnVZWAKUGLdjTowfTW10JkpnMdYDuoZ_rCovsKmp-0zOORNX4nhbF-o4ADuacWTn4pO4Ap7xgoYycpetgiPl3JFlDpdqnm1sbEQdk9_7vvVb8tsK4f3qBK2Fu41kYYNWmANBJJNUmGdZFcKGRSRoOeTXiUkPwz5krGled8vUHqu_3AOMZOq5YSFSXkSm3M3j1UW0zotaA&amp;sai=AMfl-YQiGROK_SRQ4Gng-gS0sEm6ZhBL_rpZZTeamv-VhN6yEeZcXue0eeFTB3hjpF_uPhFkgoYt684OxThgE6T3AGDk38Wdbpowjs5T25Q7BqA0lpV3p5t6jB4Zt1GjlA&amp;sig=Cg0ArKJSzFZARyAxgG_UEAE&amp;fbs_aeid=%5Bgw_fbsaeid%5D&amp;urlfix=1&amp;adurl=https://www.bbb.org/ca/bc/victoria/profile/auto-repair/fairfield-auto-repair-0047-90006600</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/tire-dealers/big-o-tires-victoria-0047-2449</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/duncan/profile/auto-repair/kicking-horse-automotive-services-0047-90012245</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/burnaby/profile/auto-repair/big-o-tires-burnaby-0037-112790</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/richmond/profile/brake-service/minit-tune-brake-auto-centre-0037-116922</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/abbotsford/profile/auto-repair/abbotsford-autotech-0037-1225764</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/tire-dealers/speedy-muffler-king-0037-115753</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/langley/profile/new-auto-parts/walnut-grove-auto-tech-0037-119513</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/saanichton/profile/auto-repair/ok-tire-saanichton-0047-90005872</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/richmond/profile/brake-service/big-o-tires-canada-richmond-0037-122407</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/kp-auto-repairs-ltd-0037-2412312</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/pawlik-automotive-0037-187351</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/richmond/profile/auto-repair/blundell-esso-0037-115046</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-repair/esplanade-auto-house-ltd-0037-1228299</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-repair/budget-brake-muffler-0037-104395</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/auto-repair/1st-street-garage-ltd-0037-131466</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/new-westminster/profile/auto-maintenance/hyack-tire-0037-107756</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/parkside-motors-ltd-0047-802</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/surrey/profile/auto-repair/visscher-pau-automotive-ltd-0037-1292359</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/fraserview-service-0037-1246923</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/victoria/profile/auto-repair/prospect-lake-auto-care-inc-0047-3243</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/north-vancouver/profile/brake-service/supertech-auto-0037-103723</t>
+  </si>
+  <si>
     <t>D B M Automotive</t>
   </si>
   <si>
@@ -1025,6 +1139,99 @@
   </si>
   <si>
     <t>Jas Toora Automotive &amp; Transmission Services Ltd.</t>
+  </si>
+  <si>
+    <t>Cowichan Auto Repair and Detailing</t>
+  </si>
+  <si>
+    <t>Vancouver Transmission Ltd.</t>
+  </si>
+  <si>
+    <t>Kingsway Autopro - Napa</t>
+  </si>
+  <si>
+    <t>K.M. Auto Repairs Body Sales</t>
+  </si>
+  <si>
+    <t>Midas Auto Service Experts</t>
+  </si>
+  <si>
+    <t>JS Performance Ltd</t>
+  </si>
+  <si>
+    <t>RG Diagnostics</t>
+  </si>
+  <si>
+    <t>Apollo Muffler Speedy Brake Centre</t>
+  </si>
+  <si>
+    <t>Auto Fierce Automotive</t>
+  </si>
+  <si>
+    <t>Cloverdale Alignment</t>
+  </si>
+  <si>
+    <t>Rand Automotive</t>
+  </si>
+  <si>
+    <t>Budget Brake &amp; Muffler Auto Centres</t>
+  </si>
+  <si>
+    <t>Big O Tires Victoria</t>
+  </si>
+  <si>
+    <t>Kicking Horse Automotive Services</t>
+  </si>
+  <si>
+    <t>Big O Tires Burnaby</t>
+  </si>
+  <si>
+    <t>Abbotsford Autotech</t>
+  </si>
+  <si>
+    <t>Speedy Muffler King</t>
+  </si>
+  <si>
+    <t>Walnut Grove Auto Tech</t>
+  </si>
+  <si>
+    <t>OK Tire - Saanichton</t>
+  </si>
+  <si>
+    <t>Big O Tires Canada Richmond</t>
+  </si>
+  <si>
+    <t>KP Auto Repairs Ltd.</t>
+  </si>
+  <si>
+    <t>Pawlik Automotive</t>
+  </si>
+  <si>
+    <t>Blundell Esso</t>
+  </si>
+  <si>
+    <t>Esplanade Auto House Ltd</t>
+  </si>
+  <si>
+    <t>1st Street Garage Ltd</t>
+  </si>
+  <si>
+    <t>Hyack Tire</t>
+  </si>
+  <si>
+    <t>Parkside Motors Ltd.</t>
+  </si>
+  <si>
+    <t>Visscher-Pau Automotive Ltd.</t>
+  </si>
+  <si>
+    <t>Fraserview Service</t>
+  </si>
+  <si>
+    <t>Prospect Lake Auto Care Inc.</t>
+  </si>
+  <si>
+    <t>Supertech Auto</t>
   </si>
   <si>
     <t>Unit 102-1485 Coast Meredian
@@ -1679,6 +1886,154 @@
 Victoria, BC V8T 2C8</t>
   </si>
   <si>
+    <t>5275 Chaster Rd
+Duncan, BC V9L 5J2</t>
+  </si>
+  <si>
+    <t>16 13550 77 Ave
+Surrey, BC V3W 6Y3</t>
+  </si>
+  <si>
+    <t>2277 Kingsway
+Vancouver, BC V5N 2T6</t>
+  </si>
+  <si>
+    <t>790 S W Marine Dr
+Vancouver, BC V6P 5Y7</t>
+  </si>
+  <si>
+    <t>4 Cooper Road
+Victoria, BC V9A 4K2</t>
+  </si>
+  <si>
+    <t>2185 Willingdon Ave
+Burnaby, BC V5C 5J4</t>
+  </si>
+  <si>
+    <t>8 30528 Great Northern Ave
+Canada, BC V2T 6H4</t>
+  </si>
+  <si>
+    <t>34 15531 24 Ave
+Surrey, BC V4A 2J4</t>
+  </si>
+  <si>
+    <t>5057 Kingsway
+Burnaby, BC V5H 2E2</t>
+  </si>
+  <si>
+    <t>103 20785 Langley Bypass
+Langley, BC V3A 5E8</t>
+  </si>
+  <si>
+    <t>200-185 Golden Drive,
+Coquitlam, BC V3K 6T1</t>
+  </si>
+  <si>
+    <t>6256 Kingsway
+Burnaby, BC V5J 1H6</t>
+  </si>
+  <si>
+    <t>5534 176 St
+Surrey, BC V3S 4C3</t>
+  </si>
+  <si>
+    <t>647 Dupplin Rd
+Victoria, BC V8Z 1C2</t>
+  </si>
+  <si>
+    <t>1315 Cotton Rd
+North Vancouver, BC V7J 1C2</t>
+  </si>
+  <si>
+    <t>18565 Fraser Hwy
+Surrey, BC V3S 8E7</t>
+  </si>
+  <si>
+    <t>1319 Quadra St
+Victoria, BC V8W 2K9</t>
+  </si>
+  <si>
+    <t>5-3050 Allenby Rd
+Duncan, BC V9L 6W5</t>
+  </si>
+  <si>
+    <t>7444 Edmonds St
+Burnaby, BC V3N 1A8</t>
+  </si>
+  <si>
+    <t>160 4280 No 3 Rd
+Richmond, BC V6X 2C2</t>
+  </si>
+  <si>
+    <t>7 30856 Peardonville Rd
+Abbotsford, BC V2T 6J9</t>
+  </si>
+  <si>
+    <t>101 13555 72 Ave
+Surrey, BC V3T 2W4</t>
+  </si>
+  <si>
+    <t>1 20092 93A Ave
+Langley, BC V1M 3Y4</t>
+  </si>
+  <si>
+    <t>6800 Oldfield Rd
+Saanichton, BC V8M 2A3</t>
+  </si>
+  <si>
+    <t>11251 Bridgeport Rd
+Richmond, BC V6X 1T3</t>
+  </si>
+  <si>
+    <t>13443 72 Ave
+Surrey, BC V3W 2N7</t>
+  </si>
+  <si>
+    <t>30 966 SW Marine Dr
+Vancouver, BC V6P 5Z2</t>
+  </si>
+  <si>
+    <t>7991 No 1 Rd
+Richmond, BC V7C 1T7</t>
+  </si>
+  <si>
+    <t>407 Mountain Hwy
+North Vancouver, BC V7J 2L1</t>
+  </si>
+  <si>
+    <t>1189 W 16 St
+North Vancouver, BC V7P 1R4</t>
+  </si>
+  <si>
+    <t>834 W 1 St
+North Vancouver, BC V7P 1A1</t>
+  </si>
+  <si>
+    <t>66 6 St
+New Westminster, BC V3L 2Z7</t>
+  </si>
+  <si>
+    <t>519 Ellice St
+Victoria, BC V8T 2G8</t>
+  </si>
+  <si>
+    <t>6455 176 St
+Surrey, BC V3S 4G4</t>
+  </si>
+  <si>
+    <t>710 SE Marine Dr
+Vancouver, BC V5X 2T7</t>
+  </si>
+  <si>
+    <t>5295 West Saanich Rd
+Victoria, BC V9E 2E8</t>
+  </si>
+  <si>
+    <t>894 Marine Dr
+North Vancouver, BC V7P 1R7</t>
+  </si>
+  <si>
     <t>https://www.bbb.org/ca/bc/port-coquitlam/profile/auto-repair/d-b-m-automotive-0037-116312/email-this-business?email=primary</t>
   </si>
   <si>
@@ -2165,6 +2520,108 @@
     <t>https://www.jastooraauto.com/</t>
   </si>
   <si>
+    <t>https://www.cowichanautorepair.com/</t>
+  </si>
+  <si>
+    <t>http://vancouvertransmission.com/</t>
+  </si>
+  <si>
+    <t>tel:604-434-1055</t>
+  </si>
+  <si>
+    <t>http://budgetbrake.com/pages/stores/metro-vancouver/vancouver---sw-marine.php</t>
+  </si>
+  <si>
+    <t>tel:250-383-9960</t>
+  </si>
+  <si>
+    <t>tel:604-557-7900</t>
+  </si>
+  <si>
+    <t>http://rgdiagnostics.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-433-7180</t>
+  </si>
+  <si>
+    <t>http://autofierce.com/</t>
+  </si>
+  <si>
+    <t>http://www.budgetbrake.com/pages/stores/metro-vancouver/richmond.php</t>
+  </si>
+  <si>
+    <t>http://budgetbrake.com/pages/stores/metro-vancouver/burnaby---kingsway.php</t>
+  </si>
+  <si>
+    <t>tel:604-574-3233</t>
+  </si>
+  <si>
+    <t>https://www.randautomotive.com/</t>
+  </si>
+  <si>
+    <t>http://www.budgetbrake.com/pages/stores/metro-vancouver/north-vancouver---main.php</t>
+  </si>
+  <si>
+    <t>https://www.bigotiresvictoria.com/</t>
+  </si>
+  <si>
+    <t>https://www.kickinghorseautorepair.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-526-2912</t>
+  </si>
+  <si>
+    <t>http://www.minit-tune.com/locations/richmond</t>
+  </si>
+  <si>
+    <t>http://www.abbotsfordautotech.ca/</t>
+  </si>
+  <si>
+    <t>tel:604-599-9031</t>
+  </si>
+  <si>
+    <t>http://www.walnutgroveauto.mechanicnet.com/</t>
+  </si>
+  <si>
+    <t>https://www.gobigo.ca/locations/results/mode/359/11251-bridgeport-road-richmond-bc-v6x1t3.aspx</t>
+  </si>
+  <si>
+    <t>https://kp-auto-repairs-ltd.business.site/</t>
+  </si>
+  <si>
+    <t>http://www.pawlikautomotive.com/</t>
+  </si>
+  <si>
+    <t>tel:604-277-1105</t>
+  </si>
+  <si>
+    <t>http://esplanadeautohouse.com/</t>
+  </si>
+  <si>
+    <t>http://www.budgetbrake.com/pages/stores/metro-vancouver/north-vancouver---pemberton.php</t>
+  </si>
+  <si>
+    <t>tel:604-984-0077</t>
+  </si>
+  <si>
+    <t>https://hyacktire.com/</t>
+  </si>
+  <si>
+    <t>https://parksidemotors.ca/</t>
+  </si>
+  <si>
+    <t>http://visscherpauauto.com/</t>
+  </si>
+  <si>
+    <t>https://www.bbb.org/ca/bc/vancouver/profile/auto-repair/fraserview-service-0037-1246923/email-this-business?email=primary</t>
+  </si>
+  <si>
+    <t>tel:250-744-1773</t>
+  </si>
+  <si>
+    <t>tel:604-980-9801</t>
+  </si>
+  <si>
     <t>16049414447</t>
   </si>
   <si>
@@ -2654,6 +3111,114 @@
     <t>12503890624</t>
   </si>
   <si>
+    <t>17784223100</t>
+  </si>
+  <si>
+    <t>16045908404</t>
+  </si>
+  <si>
+    <t>16044341055</t>
+  </si>
+  <si>
+    <t>16043217288</t>
+  </si>
+  <si>
+    <t>12503839960</t>
+  </si>
+  <si>
+    <t>16042591646</t>
+  </si>
+  <si>
+    <t>16045577900</t>
+  </si>
+  <si>
+    <t>16045367527</t>
+  </si>
+  <si>
+    <t>16044337180</t>
+  </si>
+  <si>
+    <t>16045335113</t>
+  </si>
+  <si>
+    <t>16044390248</t>
+  </si>
+  <si>
+    <t>16045743233</t>
+  </si>
+  <si>
+    <t>12503815455</t>
+  </si>
+  <si>
+    <t>16049808517</t>
+  </si>
+  <si>
+    <t>16042390140</t>
+  </si>
+  <si>
+    <t>12503847477</t>
+  </si>
+  <si>
+    <t>12507017744</t>
+  </si>
+  <si>
+    <t>16045262912</t>
+  </si>
+  <si>
+    <t>16042732871</t>
+  </si>
+  <si>
+    <t>16045047257</t>
+  </si>
+  <si>
+    <t>16045999031</t>
+  </si>
+  <si>
+    <t>16048881617</t>
+  </si>
+  <si>
+    <t>12505441489</t>
+  </si>
+  <si>
+    <t>16042738578</t>
+  </si>
+  <si>
+    <t>16474694091</t>
+  </si>
+  <si>
+    <t>16043277112</t>
+  </si>
+  <si>
+    <t>16042771105</t>
+  </si>
+  <si>
+    <t>16049807413</t>
+  </si>
+  <si>
+    <t>16049844296</t>
+  </si>
+  <si>
+    <t>16049840077</t>
+  </si>
+  <si>
+    <t>16045242264</t>
+  </si>
+  <si>
+    <t>12503821113</t>
+  </si>
+  <si>
+    <t>16045769534</t>
+  </si>
+  <si>
+    <t>16043274185</t>
+  </si>
+  <si>
+    <t>12507441773</t>
+  </si>
+  <si>
+    <t>16049809801</t>
+  </si>
+  <si>
     <t>3/1/1993</t>
   </si>
   <si>
@@ -2976,6 +3541,78 @@
   </si>
   <si>
     <t>14/7/1992</t>
+  </si>
+  <si>
+    <t>8/5/2017</t>
+  </si>
+  <si>
+    <t>16/11/1989</t>
+  </si>
+  <si>
+    <t>8/3/1995</t>
+  </si>
+  <si>
+    <t>5/3/2020</t>
+  </si>
+  <si>
+    <t>20/6/2011</t>
+  </si>
+  <si>
+    <t>12/9/2012</t>
+  </si>
+  <si>
+    <t>30/11/1980</t>
+  </si>
+  <si>
+    <t>31/7/1977</t>
+  </si>
+  <si>
+    <t>4/7/2017</t>
+  </si>
+  <si>
+    <t>24/6/1992</t>
+  </si>
+  <si>
+    <t>31/1/1981</t>
+  </si>
+  <si>
+    <t>27/10/2005</t>
+  </si>
+  <si>
+    <t>9/9/1993</t>
+  </si>
+  <si>
+    <t>14/5/2012</t>
+  </si>
+  <si>
+    <t>15/2/1994</t>
+  </si>
+  <si>
+    <t>21/3/2021</t>
+  </si>
+  <si>
+    <t>14/10/1992</t>
+  </si>
+  <si>
+    <t>5/10/2006</t>
+  </si>
+  <si>
+    <t>31/8/1983</t>
+  </si>
+  <si>
+    <t>21/11/1995</t>
+  </si>
+  <si>
+    <t>14/10/1991</t>
+  </si>
+  <si>
+    <t>16/2/2017</t>
+  </si>
+  <si>
+    <t>27/9/2009</t>
+  </si>
+  <si>
+    <t>3/7/1991</t>
   </si>
 </sst>
 </file>
@@ -3346,7 +3983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3377,19 +4014,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>337</v>
+        <v>406</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>501</v>
+        <v>607</v>
       </c>
       <c r="E2" t="s">
-        <v>663</v>
+        <v>803</v>
       </c>
       <c r="F2" t="s">
-        <v>826</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3397,19 +4034,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E3" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F3" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3417,19 +4054,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>408</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>503</v>
+        <v>609</v>
       </c>
       <c r="E4" t="s">
-        <v>665</v>
+        <v>805</v>
       </c>
       <c r="F4" t="s">
-        <v>828</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3437,19 +4074,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>340</v>
+        <v>409</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>504</v>
+        <v>610</v>
       </c>
       <c r="E5" t="s">
-        <v>666</v>
+        <v>806</v>
       </c>
       <c r="F5" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3457,19 +4094,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>505</v>
+        <v>611</v>
       </c>
       <c r="E6" t="s">
-        <v>667</v>
+        <v>807</v>
       </c>
       <c r="F6" t="s">
-        <v>830</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3477,19 +4114,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E7" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F7" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3497,19 +4134,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>411</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>506</v>
+        <v>612</v>
       </c>
       <c r="E8" t="s">
-        <v>668</v>
+        <v>808</v>
       </c>
       <c r="F8" t="s">
-        <v>831</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3517,19 +4154,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>507</v>
+        <v>613</v>
       </c>
       <c r="E9" t="s">
-        <v>669</v>
+        <v>809</v>
       </c>
       <c r="F9" t="s">
-        <v>832</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3537,19 +4174,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>413</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>508</v>
+        <v>614</v>
       </c>
       <c r="E10" t="s">
-        <v>670</v>
+        <v>810</v>
       </c>
       <c r="F10" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3557,19 +4194,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>509</v>
+        <v>615</v>
       </c>
       <c r="E11" t="s">
-        <v>671</v>
+        <v>811</v>
       </c>
       <c r="F11" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3577,19 +4214,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>510</v>
+        <v>616</v>
       </c>
       <c r="E12" t="s">
-        <v>672</v>
+        <v>812</v>
       </c>
       <c r="F12" t="s">
-        <v>834</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3597,19 +4234,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="C13" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="D13" t="s">
-        <v>511</v>
+        <v>617</v>
       </c>
       <c r="E13" t="s">
-        <v>673</v>
+        <v>813</v>
       </c>
       <c r="F13" t="s">
-        <v>835</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3617,19 +4254,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C14" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>512</v>
+        <v>618</v>
       </c>
       <c r="E14" t="s">
-        <v>674</v>
+        <v>814</v>
       </c>
       <c r="F14" t="s">
-        <v>836</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3637,19 +4274,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>513</v>
+        <v>619</v>
       </c>
       <c r="E15" t="s">
-        <v>675</v>
+        <v>815</v>
       </c>
       <c r="F15" t="s">
-        <v>837</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3657,19 +4294,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>514</v>
+        <v>620</v>
       </c>
       <c r="E16" t="s">
-        <v>676</v>
+        <v>816</v>
       </c>
       <c r="F16" t="s">
-        <v>838</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3677,19 +4314,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>420</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>515</v>
+        <v>621</v>
       </c>
       <c r="E17" t="s">
-        <v>677</v>
+        <v>817</v>
       </c>
       <c r="F17" t="s">
-        <v>839</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3697,19 +4334,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>516</v>
+        <v>622</v>
       </c>
       <c r="E18" t="s">
-        <v>678</v>
+        <v>818</v>
       </c>
       <c r="F18" t="s">
-        <v>840</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3717,19 +4354,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="C19" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>517</v>
+        <v>623</v>
       </c>
       <c r="E19" t="s">
-        <v>674</v>
+        <v>814</v>
       </c>
       <c r="F19" t="s">
-        <v>841</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3737,19 +4374,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>422</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>518</v>
+        <v>624</v>
       </c>
       <c r="E20" t="s">
-        <v>679</v>
+        <v>819</v>
       </c>
       <c r="F20" t="s">
-        <v>842</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3757,19 +4394,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>423</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>519</v>
+        <v>625</v>
       </c>
       <c r="E21" t="s">
-        <v>680</v>
+        <v>820</v>
       </c>
       <c r="F21" t="s">
-        <v>843</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3777,19 +4414,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="D22" t="s">
-        <v>520</v>
+        <v>626</v>
       </c>
       <c r="E22" t="s">
-        <v>681</v>
+        <v>821</v>
       </c>
       <c r="F22" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3797,19 +4434,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>521</v>
+        <v>627</v>
       </c>
       <c r="E23" t="s">
-        <v>682</v>
+        <v>822</v>
       </c>
       <c r="F23" t="s">
-        <v>844</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3817,19 +4454,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>426</v>
       </c>
       <c r="D24" t="s">
-        <v>522</v>
+        <v>628</v>
       </c>
       <c r="E24" t="s">
-        <v>683</v>
+        <v>823</v>
       </c>
       <c r="F24" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3837,19 +4474,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="C25" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
       <c r="E25" t="s">
-        <v>684</v>
+        <v>824</v>
       </c>
       <c r="F25" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3857,19 +4494,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="C26" t="s">
-        <v>359</v>
+        <v>428</v>
       </c>
       <c r="D26" t="s">
-        <v>524</v>
+        <v>630</v>
       </c>
       <c r="E26" t="s">
-        <v>685</v>
+        <v>825</v>
       </c>
       <c r="F26" t="s">
-        <v>845</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3877,19 +4514,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>360</v>
+        <v>429</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>525</v>
+        <v>631</v>
       </c>
       <c r="E27" t="s">
-        <v>686</v>
+        <v>826</v>
       </c>
       <c r="F27" t="s">
-        <v>846</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3897,19 +4534,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>526</v>
+        <v>632</v>
       </c>
       <c r="E28" t="s">
-        <v>687</v>
+        <v>827</v>
       </c>
       <c r="F28" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3917,19 +4554,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>431</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>527</v>
+        <v>633</v>
       </c>
       <c r="E29" t="s">
-        <v>688</v>
+        <v>828</v>
       </c>
       <c r="F29" t="s">
-        <v>848</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3937,19 +4574,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="C30" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>528</v>
+        <v>634</v>
       </c>
       <c r="E30" t="s">
-        <v>689</v>
+        <v>829</v>
       </c>
       <c r="F30" t="s">
-        <v>849</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3957,19 +4594,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="C31" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>529</v>
+        <v>635</v>
       </c>
       <c r="E31" t="s">
-        <v>690</v>
+        <v>830</v>
       </c>
       <c r="F31" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3977,19 +4614,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E32" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F32" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3997,19 +4634,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>530</v>
+        <v>636</v>
       </c>
       <c r="E33" t="s">
-        <v>691</v>
+        <v>831</v>
       </c>
       <c r="F33" t="s">
-        <v>850</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4017,19 +4654,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>531</v>
+        <v>637</v>
       </c>
       <c r="E34" t="s">
-        <v>692</v>
+        <v>832</v>
       </c>
       <c r="F34" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4037,19 +4674,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E35" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F35" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4057,19 +4694,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>532</v>
+        <v>638</v>
       </c>
       <c r="E36" t="s">
-        <v>693</v>
+        <v>833</v>
       </c>
       <c r="F36" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4077,19 +4714,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="C37" t="s">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>533</v>
+        <v>639</v>
       </c>
       <c r="E37" t="s">
-        <v>694</v>
+        <v>834</v>
       </c>
       <c r="F37" t="s">
-        <v>851</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4097,19 +4734,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="C38" t="s">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>534</v>
+        <v>640</v>
       </c>
       <c r="E38" t="s">
-        <v>695</v>
+        <v>835</v>
       </c>
       <c r="F38" t="s">
-        <v>852</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4117,19 +4754,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="C39" t="s">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>535</v>
+        <v>641</v>
       </c>
       <c r="E39" t="s">
-        <v>696</v>
+        <v>836</v>
       </c>
       <c r="F39" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4137,19 +4774,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>440</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>536</v>
+        <v>642</v>
       </c>
       <c r="E40" t="s">
-        <v>697</v>
+        <v>837</v>
       </c>
       <c r="F40" t="s">
-        <v>853</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4157,19 +4794,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>441</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>537</v>
+        <v>643</v>
       </c>
       <c r="E41" t="s">
-        <v>698</v>
+        <v>838</v>
       </c>
       <c r="F41" t="s">
-        <v>854</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4177,19 +4814,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="C42" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>538</v>
+        <v>644</v>
       </c>
       <c r="E42" t="s">
-        <v>699</v>
+        <v>839</v>
       </c>
       <c r="F42" t="s">
-        <v>855</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4197,19 +4834,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>443</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>539</v>
+        <v>645</v>
       </c>
       <c r="E43" t="s">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="F43" t="s">
-        <v>856</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4217,19 +4854,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>540</v>
+        <v>646</v>
       </c>
       <c r="E44" t="s">
-        <v>701</v>
+        <v>841</v>
       </c>
       <c r="F44" t="s">
-        <v>857</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4237,19 +4874,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>541</v>
+        <v>647</v>
       </c>
       <c r="E45" t="s">
-        <v>702</v>
+        <v>842</v>
       </c>
       <c r="F45" t="s">
-        <v>858</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4257,19 +4894,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>542</v>
+        <v>648</v>
       </c>
       <c r="E46" t="s">
-        <v>703</v>
+        <v>843</v>
       </c>
       <c r="F46" t="s">
-        <v>859</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4277,19 +4914,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E47" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F47" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4297,19 +4934,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="C48" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>543</v>
+        <v>649</v>
       </c>
       <c r="E48" t="s">
-        <v>704</v>
+        <v>844</v>
       </c>
       <c r="F48" t="s">
-        <v>860</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4317,19 +4954,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="C49" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>544</v>
+        <v>650</v>
       </c>
       <c r="E49" t="s">
-        <v>705</v>
+        <v>845</v>
       </c>
       <c r="F49" t="s">
-        <v>861</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4337,19 +4974,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C50" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>545</v>
+        <v>651</v>
       </c>
       <c r="E50" t="s">
-        <v>706</v>
+        <v>846</v>
       </c>
       <c r="F50" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4357,19 +4994,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>546</v>
+        <v>652</v>
       </c>
       <c r="E51" t="s">
-        <v>707</v>
+        <v>847</v>
       </c>
       <c r="F51" t="s">
-        <v>862</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4377,19 +5014,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C52" t="s">
-        <v>382</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s">
-        <v>547</v>
+        <v>653</v>
       </c>
       <c r="E52" t="s">
-        <v>708</v>
+        <v>848</v>
       </c>
       <c r="F52" t="s">
-        <v>863</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4397,19 +5034,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>548</v>
+        <v>654</v>
       </c>
       <c r="E53" t="s">
-        <v>709</v>
+        <v>849</v>
       </c>
       <c r="F53" t="s">
-        <v>864</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4417,19 +5054,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="D54" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="E54" t="s">
-        <v>710</v>
+        <v>850</v>
       </c>
       <c r="F54" t="s">
-        <v>865</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4437,19 +5074,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>523</v>
+        <v>629</v>
       </c>
       <c r="E55" t="s">
-        <v>711</v>
+        <v>851</v>
       </c>
       <c r="F55" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4457,19 +5094,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="C56" t="s">
-        <v>386</v>
+        <v>455</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>550</v>
+        <v>656</v>
       </c>
       <c r="E56" t="s">
-        <v>712</v>
+        <v>852</v>
       </c>
       <c r="F56" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4477,19 +5114,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>551</v>
+        <v>657</v>
       </c>
       <c r="E57" t="s">
-        <v>713</v>
+        <v>853</v>
       </c>
       <c r="F57" t="s">
-        <v>866</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4497,19 +5134,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="E58" t="s">
-        <v>714</v>
+        <v>854</v>
       </c>
       <c r="F58" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4517,19 +5154,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="E59" t="s">
-        <v>715</v>
+        <v>855</v>
       </c>
       <c r="F59" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4537,19 +5174,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>390</v>
+        <v>459</v>
       </c>
       <c r="D60" t="s">
-        <v>554</v>
+        <v>660</v>
       </c>
       <c r="E60" t="s">
-        <v>716</v>
+        <v>856</v>
       </c>
       <c r="F60" t="s">
-        <v>867</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4557,19 +5194,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>555</v>
+        <v>661</v>
       </c>
       <c r="E61" t="s">
-        <v>717</v>
+        <v>857</v>
       </c>
       <c r="F61" t="s">
-        <v>868</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4577,19 +5214,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="C62" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="E62" t="s">
-        <v>718</v>
+        <v>858</v>
       </c>
       <c r="F62" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4597,19 +5234,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>557</v>
+        <v>663</v>
       </c>
       <c r="E63" t="s">
-        <v>719</v>
+        <v>859</v>
       </c>
       <c r="F63" t="s">
-        <v>869</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4617,19 +5254,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>394</v>
+        <v>463</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>558</v>
+        <v>664</v>
       </c>
       <c r="E64" t="s">
-        <v>720</v>
+        <v>860</v>
       </c>
       <c r="F64" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4637,19 +5274,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>240</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>559</v>
+        <v>665</v>
       </c>
       <c r="E65" t="s">
-        <v>721</v>
+        <v>861</v>
       </c>
       <c r="F65" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4657,19 +5294,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C66" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>560</v>
+        <v>666</v>
       </c>
       <c r="E66" t="s">
-        <v>722</v>
+        <v>862</v>
       </c>
       <c r="F66" t="s">
-        <v>870</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4677,19 +5314,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="C67" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>561</v>
+        <v>667</v>
       </c>
       <c r="E67" t="s">
-        <v>723</v>
+        <v>863</v>
       </c>
       <c r="F67" t="s">
-        <v>871</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4697,19 +5334,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E68" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F68" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4717,19 +5354,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="C69" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>562</v>
+        <v>668</v>
       </c>
       <c r="E69" t="s">
-        <v>724</v>
+        <v>864</v>
       </c>
       <c r="F69" t="s">
-        <v>872</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4737,19 +5374,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="C70" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="D70" t="s">
-        <v>563</v>
+        <v>669</v>
       </c>
       <c r="E70" t="s">
-        <v>725</v>
+        <v>865</v>
       </c>
       <c r="F70" t="s">
-        <v>873</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4757,19 +5394,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="C71" t="s">
-        <v>400</v>
+        <v>469</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>564</v>
+        <v>670</v>
       </c>
       <c r="E71" t="s">
-        <v>726</v>
+        <v>866</v>
       </c>
       <c r="F71" t="s">
-        <v>874</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4777,19 +5414,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>565</v>
+        <v>671</v>
       </c>
       <c r="E72" t="s">
-        <v>727</v>
+        <v>867</v>
       </c>
       <c r="F72" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4797,19 +5434,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>566</v>
+        <v>672</v>
       </c>
       <c r="E73" t="s">
-        <v>728</v>
+        <v>868</v>
       </c>
       <c r="F73" t="s">
-        <v>875</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4817,19 +5454,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="D74" t="s">
-        <v>567</v>
+        <v>673</v>
       </c>
       <c r="E74" t="s">
-        <v>729</v>
+        <v>869</v>
       </c>
       <c r="F74" t="s">
-        <v>876</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4837,19 +5474,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="C75" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>568</v>
+        <v>674</v>
       </c>
       <c r="E75" t="s">
-        <v>730</v>
+        <v>870</v>
       </c>
       <c r="F75" t="s">
-        <v>877</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4857,19 +5494,19 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="C76" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>569</v>
+        <v>675</v>
       </c>
       <c r="E76" t="s">
-        <v>731</v>
+        <v>871</v>
       </c>
       <c r="F76" t="s">
-        <v>878</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4877,19 +5514,19 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="C77" t="s">
-        <v>406</v>
+        <v>475</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>570</v>
+        <v>676</v>
       </c>
       <c r="E77" t="s">
-        <v>732</v>
+        <v>872</v>
       </c>
       <c r="F77" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4897,19 +5534,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="C78" t="s">
-        <v>407</v>
+        <v>476</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="E78" t="s">
-        <v>733</v>
+        <v>873</v>
       </c>
       <c r="F78" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4917,19 +5554,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="C79" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>571</v>
+        <v>677</v>
       </c>
       <c r="E79" t="s">
-        <v>734</v>
+        <v>874</v>
       </c>
       <c r="F79" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4937,19 +5574,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>409</v>
+        <v>478</v>
       </c>
       <c r="D80" t="s">
-        <v>572</v>
+        <v>678</v>
       </c>
       <c r="E80" t="s">
-        <v>735</v>
+        <v>875</v>
       </c>
       <c r="F80" t="s">
-        <v>879</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4957,19 +5594,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s">
-        <v>410</v>
+        <v>479</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>573</v>
+        <v>679</v>
       </c>
       <c r="E81" t="s">
-        <v>736</v>
+        <v>876</v>
       </c>
       <c r="F81" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4977,19 +5614,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C82" t="s">
-        <v>411</v>
+        <v>480</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>574</v>
+        <v>680</v>
       </c>
       <c r="E82" t="s">
-        <v>737</v>
+        <v>877</v>
       </c>
       <c r="F82" t="s">
-        <v>880</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4997,19 +5634,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C83" t="s">
-        <v>412</v>
+        <v>481</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>575</v>
+        <v>681</v>
       </c>
       <c r="E83" t="s">
-        <v>738</v>
+        <v>878</v>
       </c>
       <c r="F83" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5017,19 +5654,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C84" t="s">
-        <v>413</v>
+        <v>482</v>
       </c>
       <c r="D84" t="s">
-        <v>576</v>
+        <v>682</v>
       </c>
       <c r="E84" t="s">
-        <v>739</v>
+        <v>879</v>
       </c>
       <c r="F84" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5037,19 +5674,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E85" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F85" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5057,19 +5694,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E86" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F86" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5077,19 +5714,19 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E87" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F87" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5097,19 +5734,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C88" t="s">
-        <v>414</v>
+        <v>483</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>577</v>
+        <v>683</v>
       </c>
       <c r="E88" t="s">
-        <v>740</v>
+        <v>880</v>
       </c>
       <c r="F88" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5117,19 +5754,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C89" t="s">
-        <v>415</v>
+        <v>484</v>
       </c>
       <c r="D89" t="s">
-        <v>578</v>
+        <v>684</v>
       </c>
       <c r="E89" t="s">
-        <v>741</v>
+        <v>881</v>
       </c>
       <c r="F89" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5137,19 +5774,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C90" t="s">
-        <v>416</v>
+        <v>485</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>579</v>
+        <v>685</v>
       </c>
       <c r="E90" t="s">
-        <v>742</v>
+        <v>882</v>
       </c>
       <c r="F90" t="s">
-        <v>881</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5157,19 +5794,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C91" t="s">
-        <v>417</v>
+        <v>486</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>580</v>
+        <v>686</v>
       </c>
       <c r="E91" t="s">
-        <v>743</v>
+        <v>883</v>
       </c>
       <c r="F91" t="s">
-        <v>882</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5177,19 +5814,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C92" t="s">
-        <v>418</v>
+        <v>487</v>
       </c>
       <c r="D92" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
       <c r="E92" t="s">
-        <v>744</v>
+        <v>884</v>
       </c>
       <c r="F92" t="s">
-        <v>883</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5197,19 +5834,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="C93" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>582</v>
+        <v>688</v>
       </c>
       <c r="E93" t="s">
-        <v>745</v>
+        <v>885</v>
       </c>
       <c r="F93" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5217,19 +5854,19 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="C94" t="s">
-        <v>420</v>
+        <v>489</v>
       </c>
       <c r="D94" t="s">
-        <v>583</v>
+        <v>689</v>
       </c>
       <c r="E94" t="s">
-        <v>746</v>
+        <v>886</v>
       </c>
       <c r="F94" t="s">
-        <v>884</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5237,19 +5874,19 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>421</v>
+        <v>490</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>580</v>
+        <v>686</v>
       </c>
       <c r="E95" t="s">
-        <v>747</v>
+        <v>887</v>
       </c>
       <c r="F95" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5257,19 +5894,19 @@
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="C96" t="s">
-        <v>422</v>
+        <v>491</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>584</v>
+        <v>690</v>
       </c>
       <c r="E96" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="F96" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5277,19 +5914,19 @@
         <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="C97" t="s">
-        <v>423</v>
+        <v>492</v>
       </c>
       <c r="D97" t="s">
-        <v>585</v>
+        <v>691</v>
       </c>
       <c r="E97" t="s">
-        <v>749</v>
+        <v>889</v>
       </c>
       <c r="F97" t="s">
-        <v>885</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5297,19 +5934,19 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>424</v>
+        <v>493</v>
       </c>
       <c r="D98" t="s">
-        <v>586</v>
+        <v>692</v>
       </c>
       <c r="E98" t="s">
-        <v>750</v>
+        <v>890</v>
       </c>
       <c r="F98" t="s">
-        <v>886</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5317,19 +5954,19 @@
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C99" t="s">
-        <v>425</v>
+        <v>494</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>587</v>
+        <v>693</v>
       </c>
       <c r="E99" t="s">
-        <v>751</v>
+        <v>891</v>
       </c>
       <c r="F99" t="s">
-        <v>887</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5337,19 +5974,19 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="C100" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="D100" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
       <c r="E100" t="s">
-        <v>581</v>
+        <v>687</v>
       </c>
       <c r="F100" t="s">
-        <v>888</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5357,19 +5994,19 @@
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="C101" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>588</v>
+        <v>694</v>
       </c>
       <c r="E101" t="s">
-        <v>752</v>
+        <v>892</v>
       </c>
       <c r="F101" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5377,19 +6014,19 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="C102" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>589</v>
+        <v>695</v>
       </c>
       <c r="E102" t="s">
-        <v>753</v>
+        <v>893</v>
       </c>
       <c r="F102" t="s">
-        <v>889</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5397,19 +6034,19 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="C103" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="D103" t="s">
-        <v>590</v>
+        <v>696</v>
       </c>
       <c r="E103" t="s">
-        <v>754</v>
+        <v>894</v>
       </c>
       <c r="F103" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5417,19 +6054,19 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C104" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="D104" t="s">
-        <v>591</v>
+        <v>697</v>
       </c>
       <c r="E104" t="s">
-        <v>755</v>
+        <v>895</v>
       </c>
       <c r="F104" t="s">
-        <v>890</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5437,19 +6074,19 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>592</v>
+        <v>698</v>
       </c>
       <c r="E105" t="s">
-        <v>756</v>
+        <v>896</v>
       </c>
       <c r="F105" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5457,19 +6094,19 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>593</v>
+        <v>699</v>
       </c>
       <c r="E106" t="s">
-        <v>757</v>
+        <v>897</v>
       </c>
       <c r="F106" t="s">
-        <v>891</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5477,19 +6114,19 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="D107" t="s">
-        <v>594</v>
+        <v>700</v>
       </c>
       <c r="E107" t="s">
-        <v>758</v>
+        <v>898</v>
       </c>
       <c r="F107" t="s">
-        <v>892</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5497,19 +6134,19 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="C108" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>595</v>
+        <v>701</v>
       </c>
       <c r="E108" t="s">
-        <v>759</v>
+        <v>899</v>
       </c>
       <c r="F108" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5517,19 +6154,19 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>596</v>
+        <v>702</v>
       </c>
       <c r="E109" t="s">
-        <v>760</v>
+        <v>900</v>
       </c>
       <c r="F109" t="s">
-        <v>893</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5537,19 +6174,19 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="D110" t="s">
-        <v>597</v>
+        <v>703</v>
       </c>
       <c r="E110" t="s">
-        <v>761</v>
+        <v>901</v>
       </c>
       <c r="F110" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5557,19 +6194,19 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="C111" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
       <c r="D111" t="s">
-        <v>598</v>
+        <v>704</v>
       </c>
       <c r="E111" t="s">
-        <v>762</v>
+        <v>902</v>
       </c>
       <c r="F111" t="s">
-        <v>894</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5577,19 +6214,19 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C112" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E112" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F112" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5597,19 +6234,19 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="C113" t="s">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>599</v>
+        <v>705</v>
       </c>
       <c r="E113" t="s">
-        <v>763</v>
+        <v>903</v>
       </c>
       <c r="F113" t="s">
-        <v>895</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5617,19 +6254,19 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="C114" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>600</v>
+        <v>706</v>
       </c>
       <c r="E114" t="s">
-        <v>764</v>
+        <v>904</v>
       </c>
       <c r="F114" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5637,19 +6274,19 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="C115" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>601</v>
+        <v>707</v>
       </c>
       <c r="E115" t="s">
-        <v>765</v>
+        <v>905</v>
       </c>
       <c r="F115" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5657,19 +6294,19 @@
         <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="C116" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>602</v>
+        <v>708</v>
       </c>
       <c r="E116" t="s">
-        <v>766</v>
+        <v>906</v>
       </c>
       <c r="F116" t="s">
-        <v>896</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5677,19 +6314,19 @@
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E117" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F117" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5697,19 +6334,19 @@
         <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="C118" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>603</v>
+        <v>709</v>
       </c>
       <c r="E118" t="s">
-        <v>767</v>
+        <v>907</v>
       </c>
       <c r="F118" t="s">
-        <v>897</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5717,19 +6354,19 @@
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>604</v>
+        <v>710</v>
       </c>
       <c r="E119" t="s">
-        <v>768</v>
+        <v>908</v>
       </c>
       <c r="F119" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5737,19 +6374,19 @@
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="C120" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>605</v>
+        <v>711</v>
       </c>
       <c r="E120" t="s">
-        <v>769</v>
+        <v>909</v>
       </c>
       <c r="F120" t="s">
-        <v>898</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5757,19 +6394,19 @@
         <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
       <c r="D121" t="s">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="E121" t="s">
-        <v>770</v>
+        <v>910</v>
       </c>
       <c r="F121" t="s">
-        <v>899</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5777,19 +6414,19 @@
         <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C122" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E122" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F122" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5797,19 +6434,19 @@
         <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="C123" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>607</v>
+        <v>713</v>
       </c>
       <c r="E123" t="s">
-        <v>771</v>
+        <v>911</v>
       </c>
       <c r="F123" t="s">
-        <v>900</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5817,19 +6454,19 @@
         <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="C124" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="E124" t="s">
-        <v>772</v>
+        <v>912</v>
       </c>
       <c r="F124" t="s">
-        <v>901</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5837,19 +6474,19 @@
         <v>129</v>
       </c>
       <c r="B125" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C125" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="D125" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
       <c r="E125" t="s">
-        <v>773</v>
+        <v>913</v>
       </c>
       <c r="F125" t="s">
-        <v>902</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5857,19 +6494,19 @@
         <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="C126" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="D126" t="s">
-        <v>610</v>
+        <v>716</v>
       </c>
       <c r="E126" t="s">
-        <v>774</v>
+        <v>914</v>
       </c>
       <c r="F126" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5877,19 +6514,19 @@
         <v>131</v>
       </c>
       <c r="B127" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C127" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="E127" t="s">
-        <v>775</v>
+        <v>915</v>
       </c>
       <c r="F127" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5897,19 +6534,19 @@
         <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C128" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E128" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F128" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5917,19 +6554,19 @@
         <v>133</v>
       </c>
       <c r="B129" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="C129" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="E129" t="s">
-        <v>776</v>
+        <v>916</v>
       </c>
       <c r="F129" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5937,19 +6574,19 @@
         <v>134</v>
       </c>
       <c r="B130" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>613</v>
+        <v>719</v>
       </c>
       <c r="E130" t="s">
-        <v>777</v>
+        <v>917</v>
       </c>
       <c r="F130" t="s">
-        <v>903</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5957,19 +6594,19 @@
         <v>135</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="C131" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="D131" t="s">
-        <v>614</v>
+        <v>720</v>
       </c>
       <c r="E131" t="s">
-        <v>778</v>
+        <v>918</v>
       </c>
       <c r="F131" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5977,19 +6614,19 @@
         <v>136</v>
       </c>
       <c r="B132" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="C132" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="D132" t="s">
-        <v>615</v>
+        <v>721</v>
       </c>
       <c r="E132" t="s">
-        <v>779</v>
+        <v>919</v>
       </c>
       <c r="F132" t="s">
-        <v>904</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5997,19 +6634,19 @@
         <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C133" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>616</v>
+        <v>722</v>
       </c>
       <c r="E133" t="s">
-        <v>780</v>
+        <v>920</v>
       </c>
       <c r="F133" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6017,19 +6654,19 @@
         <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C134" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="E134" t="s">
-        <v>781</v>
+        <v>921</v>
       </c>
       <c r="F134" t="s">
-        <v>905</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6037,19 +6674,19 @@
         <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="C135" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>618</v>
+        <v>724</v>
       </c>
       <c r="E135" t="s">
-        <v>782</v>
+        <v>922</v>
       </c>
       <c r="F135" t="s">
-        <v>906</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6057,19 +6694,19 @@
         <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="C136" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="D136" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="E136" t="s">
-        <v>783</v>
+        <v>923</v>
       </c>
       <c r="F136" t="s">
-        <v>907</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6077,19 +6714,19 @@
         <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="C137" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="D137" t="s">
-        <v>620</v>
+        <v>726</v>
       </c>
       <c r="E137" t="s">
-        <v>784</v>
+        <v>924</v>
       </c>
       <c r="F137" t="s">
-        <v>908</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6097,19 +6734,19 @@
         <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="C138" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>621</v>
+        <v>727</v>
       </c>
       <c r="E138" t="s">
-        <v>785</v>
+        <v>925</v>
       </c>
       <c r="F138" t="s">
-        <v>909</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6117,19 +6754,19 @@
         <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="C139" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="D139" t="s">
-        <v>622</v>
+        <v>728</v>
       </c>
       <c r="E139" t="s">
-        <v>786</v>
+        <v>926</v>
       </c>
       <c r="F139" t="s">
-        <v>892</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6137,19 +6774,19 @@
         <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="C140" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="E140" t="s">
-        <v>787</v>
+        <v>927</v>
       </c>
       <c r="F140" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6157,19 +6794,19 @@
         <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E141" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F141" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6177,19 +6814,19 @@
         <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="C142" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>624</v>
+        <v>730</v>
       </c>
       <c r="E142" t="s">
-        <v>788</v>
+        <v>928</v>
       </c>
       <c r="F142" t="s">
-        <v>910</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6197,19 +6834,19 @@
         <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C143" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>625</v>
+        <v>731</v>
       </c>
       <c r="E143" t="s">
-        <v>789</v>
+        <v>929</v>
       </c>
       <c r="F143" t="s">
-        <v>911</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6217,19 +6854,19 @@
         <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="C144" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="E144" t="s">
-        <v>790</v>
+        <v>930</v>
       </c>
       <c r="F144" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6237,19 +6874,19 @@
         <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="C145" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>627</v>
+        <v>733</v>
       </c>
       <c r="E145" t="s">
-        <v>791</v>
+        <v>931</v>
       </c>
       <c r="F145" t="s">
-        <v>912</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6257,19 +6894,19 @@
         <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="C146" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>628</v>
+        <v>734</v>
       </c>
       <c r="E146" t="s">
-        <v>792</v>
+        <v>932</v>
       </c>
       <c r="F146" t="s">
-        <v>913</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6277,19 +6914,19 @@
         <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="C147" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>629</v>
+        <v>735</v>
       </c>
       <c r="E147" t="s">
-        <v>793</v>
+        <v>933</v>
       </c>
       <c r="F147" t="s">
-        <v>914</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6297,19 +6934,19 @@
         <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C148" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="E148" t="s">
-        <v>794</v>
+        <v>934</v>
       </c>
       <c r="F148" t="s">
-        <v>847</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6317,19 +6954,19 @@
         <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="E149" t="s">
-        <v>684</v>
+        <v>824</v>
       </c>
       <c r="F149" t="s">
-        <v>915</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6337,19 +6974,19 @@
         <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="C150" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>632</v>
+        <v>738</v>
       </c>
       <c r="E150" t="s">
-        <v>795</v>
+        <v>935</v>
       </c>
       <c r="F150" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6357,19 +6994,19 @@
         <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C151" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>633</v>
+        <v>739</v>
       </c>
       <c r="E151" t="s">
-        <v>796</v>
+        <v>936</v>
       </c>
       <c r="F151" t="s">
-        <v>916</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6377,19 +7014,19 @@
         <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C152" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="E152" t="s">
-        <v>797</v>
+        <v>937</v>
       </c>
       <c r="F152" t="s">
-        <v>917</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6397,19 +7034,19 @@
         <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="C153" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="E153" t="s">
-        <v>798</v>
+        <v>938</v>
       </c>
       <c r="F153" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6417,19 +7054,19 @@
         <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="C154" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="D154" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
       <c r="E154" t="s">
-        <v>799</v>
+        <v>939</v>
       </c>
       <c r="F154" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6437,19 +7074,19 @@
         <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="C155" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="D155" t="s">
-        <v>637</v>
+        <v>743</v>
       </c>
       <c r="E155" t="s">
-        <v>800</v>
+        <v>940</v>
       </c>
       <c r="F155" t="s">
-        <v>918</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6457,19 +7094,19 @@
         <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C156" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="D156" t="s">
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="E156" t="s">
-        <v>801</v>
+        <v>941</v>
       </c>
       <c r="F156" t="s">
-        <v>919</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6477,19 +7114,19 @@
         <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="C157" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>639</v>
+        <v>745</v>
       </c>
       <c r="E157" t="s">
-        <v>802</v>
+        <v>942</v>
       </c>
       <c r="F157" t="s">
-        <v>920</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6497,19 +7134,19 @@
         <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>338</v>
+        <v>407</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="E158" t="s">
-        <v>664</v>
+        <v>804</v>
       </c>
       <c r="F158" t="s">
-        <v>827</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6517,19 +7154,19 @@
         <v>163</v>
       </c>
       <c r="B159" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="C159" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="D159" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="E159" t="s">
-        <v>803</v>
+        <v>943</v>
       </c>
       <c r="F159" t="s">
-        <v>921</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6537,19 +7174,19 @@
         <v>164</v>
       </c>
       <c r="B160" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="C160" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="D160" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="E160" t="s">
-        <v>804</v>
+        <v>944</v>
       </c>
       <c r="F160" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6557,19 +7194,19 @@
         <v>165</v>
       </c>
       <c r="B161" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="C161" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="E161" t="s">
-        <v>805</v>
+        <v>945</v>
       </c>
       <c r="F161" t="s">
-        <v>922</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6577,19 +7214,19 @@
         <v>166</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="C162" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="E162" t="s">
-        <v>806</v>
+        <v>946</v>
       </c>
       <c r="F162" t="s">
-        <v>923</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6597,19 +7234,19 @@
         <v>167</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="C163" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>644</v>
+        <v>750</v>
       </c>
       <c r="E163" t="s">
-        <v>807</v>
+        <v>947</v>
       </c>
       <c r="F163" t="s">
-        <v>924</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6617,19 +7254,19 @@
         <v>168</v>
       </c>
       <c r="B164" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="C164" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>645</v>
+        <v>751</v>
       </c>
       <c r="E164" t="s">
-        <v>808</v>
+        <v>948</v>
       </c>
       <c r="F164" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6637,19 +7274,19 @@
         <v>169</v>
       </c>
       <c r="B165" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="C165" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>646</v>
+        <v>752</v>
       </c>
       <c r="E165" t="s">
-        <v>809</v>
+        <v>949</v>
       </c>
       <c r="F165" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6657,19 +7294,19 @@
         <v>170</v>
       </c>
       <c r="B166" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="C166" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>647</v>
+        <v>753</v>
       </c>
       <c r="E166" t="s">
-        <v>810</v>
+        <v>950</v>
       </c>
       <c r="F166" t="s">
-        <v>833</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6677,19 +7314,19 @@
         <v>171</v>
       </c>
       <c r="B167" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="C167" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>648</v>
+        <v>754</v>
       </c>
       <c r="E167" t="s">
-        <v>811</v>
+        <v>951</v>
       </c>
       <c r="F167" t="s">
-        <v>840</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6697,19 +7334,19 @@
         <v>172</v>
       </c>
       <c r="B168" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>649</v>
+        <v>755</v>
       </c>
       <c r="E168" t="s">
-        <v>812</v>
+        <v>952</v>
       </c>
       <c r="F168" t="s">
-        <v>925</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6717,19 +7354,19 @@
         <v>173</v>
       </c>
       <c r="B169" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="C169" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="D169" t="s">
-        <v>650</v>
+        <v>756</v>
       </c>
       <c r="E169" t="s">
-        <v>813</v>
+        <v>953</v>
       </c>
       <c r="F169" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6737,19 +7374,19 @@
         <v>174</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C170" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>651</v>
+        <v>757</v>
       </c>
       <c r="E170" t="s">
-        <v>814</v>
+        <v>954</v>
       </c>
       <c r="F170" t="s">
-        <v>926</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6757,19 +7394,19 @@
         <v>175</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="C171" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>652</v>
+        <v>758</v>
       </c>
       <c r="E171" t="s">
-        <v>815</v>
+        <v>955</v>
       </c>
       <c r="F171" t="s">
-        <v>927</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6777,19 +7414,19 @@
         <v>176</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
+        <v>366</v>
       </c>
       <c r="C172" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="D172" t="s">
-        <v>653</v>
+        <v>759</v>
       </c>
       <c r="E172" t="s">
-        <v>816</v>
+        <v>956</v>
       </c>
       <c r="F172" t="s">
-        <v>928</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6797,19 +7434,19 @@
         <v>177</v>
       </c>
       <c r="B173" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="C173" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>654</v>
+        <v>760</v>
       </c>
       <c r="E173" t="s">
-        <v>817</v>
+        <v>957</v>
       </c>
       <c r="F173" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6817,19 +7454,19 @@
         <v>178</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="C174" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>655</v>
+        <v>761</v>
       </c>
       <c r="E174" t="s">
-        <v>818</v>
+        <v>958</v>
       </c>
       <c r="F174" t="s">
-        <v>929</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -6837,19 +7474,19 @@
         <v>179</v>
       </c>
       <c r="B175" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="C175" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>656</v>
+        <v>762</v>
       </c>
       <c r="E175" t="s">
-        <v>819</v>
+        <v>959</v>
       </c>
       <c r="F175" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6857,19 +7494,19 @@
         <v>180</v>
       </c>
       <c r="B176" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="C176" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>657</v>
+        <v>763</v>
       </c>
       <c r="E176" t="s">
-        <v>820</v>
+        <v>960</v>
       </c>
       <c r="F176" t="s">
-        <v>829</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6877,19 +7514,19 @@
         <v>181</v>
       </c>
       <c r="B177" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="C177" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>658</v>
+        <v>764</v>
       </c>
       <c r="E177" t="s">
-        <v>821</v>
+        <v>961</v>
       </c>
       <c r="F177" t="s">
-        <v>930</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6897,19 +7534,19 @@
         <v>182</v>
       </c>
       <c r="B178" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="C178" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>659</v>
+        <v>765</v>
       </c>
       <c r="E178" t="s">
-        <v>822</v>
+        <v>962</v>
       </c>
       <c r="F178" t="s">
-        <v>931</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6917,19 +7554,19 @@
         <v>183</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="C179" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="D179" t="s">
-        <v>660</v>
+        <v>766</v>
       </c>
       <c r="E179" t="s">
-        <v>823</v>
+        <v>963</v>
       </c>
       <c r="F179" t="s">
-        <v>932</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6937,19 +7574,19 @@
         <v>184</v>
       </c>
       <c r="B180" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C180" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="D180" t="s">
-        <v>661</v>
+        <v>767</v>
       </c>
       <c r="E180" t="s">
-        <v>824</v>
+        <v>964</v>
       </c>
       <c r="F180" t="s">
-        <v>933</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6957,19 +7594,779 @@
         <v>185</v>
       </c>
       <c r="B181" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="C181" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>662</v>
+        <v>768</v>
       </c>
       <c r="E181" t="s">
-        <v>825</v>
+        <v>965</v>
       </c>
       <c r="F181" t="s">
-        <v>829</v>
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" t="s">
+        <v>570</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E182" t="s">
+        <v>966</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183" t="s">
+        <v>376</v>
+      </c>
+      <c r="C183" t="s">
+        <v>571</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="E183" t="s">
+        <v>967</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184" t="s">
+        <v>377</v>
+      </c>
+      <c r="C184" t="s">
+        <v>572</v>
+      </c>
+      <c r="D184" t="s">
+        <v>771</v>
+      </c>
+      <c r="E184" t="s">
+        <v>968</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185" t="s">
+        <v>235</v>
+      </c>
+      <c r="C185" t="s">
+        <v>573</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E185" t="s">
+        <v>969</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186" t="s">
+        <v>378</v>
+      </c>
+      <c r="C186" t="s">
+        <v>574</v>
+      </c>
+      <c r="D186" t="s">
+        <v>773</v>
+      </c>
+      <c r="E186" t="s">
+        <v>970</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187" t="s">
+        <v>379</v>
+      </c>
+      <c r="C187" t="s">
+        <v>575</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E187" t="s">
+        <v>971</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188" t="s">
+        <v>380</v>
+      </c>
+      <c r="C188" t="s">
+        <v>576</v>
+      </c>
+      <c r="D188" t="s">
+        <v>774</v>
+      </c>
+      <c r="E188" t="s">
+        <v>972</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189" t="s">
+        <v>381</v>
+      </c>
+      <c r="C189" t="s">
+        <v>577</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E189" t="s">
+        <v>973</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190" t="s">
+        <v>382</v>
+      </c>
+      <c r="C190" t="s">
+        <v>578</v>
+      </c>
+      <c r="D190" t="s">
+        <v>776</v>
+      </c>
+      <c r="E190" t="s">
+        <v>974</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191" t="s">
+        <v>383</v>
+      </c>
+      <c r="C191" t="s">
+        <v>579</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E191" t="s">
+        <v>975</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" t="s">
+        <v>580</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E192" t="s">
+        <v>887</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193" t="s">
+        <v>235</v>
+      </c>
+      <c r="C193" t="s">
+        <v>581</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E193" t="s">
+        <v>976</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" t="s">
+        <v>582</v>
+      </c>
+      <c r="D194" t="s">
+        <v>780</v>
+      </c>
+      <c r="E194" t="s">
+        <v>977</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195" t="s">
+        <v>385</v>
+      </c>
+      <c r="C195" t="s">
+        <v>583</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E195" t="s">
+        <v>978</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196" t="s">
+        <v>386</v>
+      </c>
+      <c r="C196" t="s">
+        <v>584</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E196" t="s">
+        <v>979</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197" t="s">
+        <v>379</v>
+      </c>
+      <c r="C197" t="s">
+        <v>585</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E197" t="s">
+        <v>980</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" t="s">
+        <v>225</v>
+      </c>
+      <c r="C198" t="s">
+        <v>407</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E198" t="s">
+        <v>804</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" t="s">
+        <v>387</v>
+      </c>
+      <c r="C199" t="s">
+        <v>586</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E199" t="s">
+        <v>981</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" t="s">
+        <v>388</v>
+      </c>
+      <c r="C200" t="s">
+        <v>587</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E200" t="s">
+        <v>982</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" t="s">
+        <v>389</v>
+      </c>
+      <c r="C201" t="s">
+        <v>588</v>
+      </c>
+      <c r="D201" t="s">
+        <v>785</v>
+      </c>
+      <c r="E201" t="s">
+        <v>983</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" t="s">
+        <v>344</v>
+      </c>
+      <c r="C202" t="s">
+        <v>589</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E202" t="s">
+        <v>984</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" t="s">
+        <v>390</v>
+      </c>
+      <c r="C203" t="s">
+        <v>590</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E203" t="s">
+        <v>985</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" t="s">
+        <v>391</v>
+      </c>
+      <c r="C204" t="s">
+        <v>591</v>
+      </c>
+      <c r="D204" t="s">
+        <v>788</v>
+      </c>
+      <c r="E204" t="s">
+        <v>986</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" t="s">
+        <v>392</v>
+      </c>
+      <c r="C205" t="s">
+        <v>592</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E205" t="s">
+        <v>987</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" t="s">
+        <v>393</v>
+      </c>
+      <c r="C206" t="s">
+        <v>593</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E206" t="s">
+        <v>988</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" t="s">
+        <v>394</v>
+      </c>
+      <c r="C207" t="s">
+        <v>594</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E207" t="s">
+        <v>989</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" t="s">
+        <v>395</v>
+      </c>
+      <c r="C208" t="s">
+        <v>595</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E208" t="s">
+        <v>990</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" t="s">
+        <v>396</v>
+      </c>
+      <c r="C209" t="s">
+        <v>596</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E209" t="s">
+        <v>991</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" t="s">
+        <v>397</v>
+      </c>
+      <c r="C210" t="s">
+        <v>597</v>
+      </c>
+      <c r="D210" t="s">
+        <v>793</v>
+      </c>
+      <c r="E210" t="s">
+        <v>992</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" t="s">
+        <v>398</v>
+      </c>
+      <c r="C211" t="s">
+        <v>598</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E211" t="s">
+        <v>993</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" t="s">
+        <v>235</v>
+      </c>
+      <c r="C212" t="s">
+        <v>599</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E212" t="s">
+        <v>994</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" t="s">
+        <v>399</v>
+      </c>
+      <c r="C213" t="s">
+        <v>600</v>
+      </c>
+      <c r="D213" t="s">
+        <v>796</v>
+      </c>
+      <c r="E213" t="s">
+        <v>995</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" t="s">
+        <v>400</v>
+      </c>
+      <c r="C214" t="s">
+        <v>601</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E214" t="s">
+        <v>996</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" t="s">
+        <v>401</v>
+      </c>
+      <c r="C215" t="s">
+        <v>602</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E215" t="s">
+        <v>997</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" t="s">
+        <v>402</v>
+      </c>
+      <c r="C216" t="s">
+        <v>603</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E216" t="s">
+        <v>998</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" t="s">
+        <v>403</v>
+      </c>
+      <c r="C217" t="s">
+        <v>604</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E217" t="s">
+        <v>999</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" t="s">
+        <v>404</v>
+      </c>
+      <c r="C218" t="s">
+        <v>605</v>
+      </c>
+      <c r="D218" t="s">
+        <v>801</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" t="s">
+        <v>405</v>
+      </c>
+      <c r="C219" t="s">
+        <v>606</v>
+      </c>
+      <c r="D219" t="s">
+        <v>802</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
@@ -7295,6 +8692,71 @@
     <hyperlink ref="A180" r:id="rId319"/>
     <hyperlink ref="A181" r:id="rId320"/>
     <hyperlink ref="D181" r:id="rId321"/>
+    <hyperlink ref="A182" r:id="rId322"/>
+    <hyperlink ref="D182" r:id="rId323"/>
+    <hyperlink ref="A183" r:id="rId324"/>
+    <hyperlink ref="D183" r:id="rId325"/>
+    <hyperlink ref="A184" r:id="rId326"/>
+    <hyperlink ref="A185" r:id="rId327"/>
+    <hyperlink ref="D185" r:id="rId328"/>
+    <hyperlink ref="A186" r:id="rId329"/>
+    <hyperlink ref="A187" r:id="rId330"/>
+    <hyperlink ref="D187" r:id="rId331"/>
+    <hyperlink ref="A188" r:id="rId332"/>
+    <hyperlink ref="A189" r:id="rId333"/>
+    <hyperlink ref="D189" r:id="rId334"/>
+    <hyperlink ref="A190" r:id="rId335"/>
+    <hyperlink ref="A191" r:id="rId336"/>
+    <hyperlink ref="D191" r:id="rId337"/>
+    <hyperlink ref="A192" r:id="rId338"/>
+    <hyperlink ref="D192" r:id="rId339"/>
+    <hyperlink ref="A193" r:id="rId340"/>
+    <hyperlink ref="D193" r:id="rId341"/>
+    <hyperlink ref="A194" r:id="rId342"/>
+    <hyperlink ref="A195" r:id="rId343"/>
+    <hyperlink ref="D195" r:id="rId344"/>
+    <hyperlink ref="A196" r:id="rId345"/>
+    <hyperlink ref="D196" r:id="rId346"/>
+    <hyperlink ref="A197" r:id="rId347"/>
+    <hyperlink ref="D197" r:id="rId348"/>
+    <hyperlink ref="A198" r:id="rId349"/>
+    <hyperlink ref="D198" r:id="rId350"/>
+    <hyperlink ref="A199" r:id="rId351"/>
+    <hyperlink ref="D199" r:id="rId352"/>
+    <hyperlink ref="A200" r:id="rId353"/>
+    <hyperlink ref="D200" r:id="rId354"/>
+    <hyperlink ref="A201" r:id="rId355"/>
+    <hyperlink ref="A202" r:id="rId356"/>
+    <hyperlink ref="D202" r:id="rId357"/>
+    <hyperlink ref="A203" r:id="rId358"/>
+    <hyperlink ref="D203" r:id="rId359"/>
+    <hyperlink ref="A204" r:id="rId360"/>
+    <hyperlink ref="A205" r:id="rId361"/>
+    <hyperlink ref="D205" r:id="rId362"/>
+    <hyperlink ref="A206" r:id="rId363"/>
+    <hyperlink ref="D206" r:id="rId364"/>
+    <hyperlink ref="A207" r:id="rId365"/>
+    <hyperlink ref="D207" r:id="rId366"/>
+    <hyperlink ref="A208" r:id="rId367"/>
+    <hyperlink ref="D208" r:id="rId368"/>
+    <hyperlink ref="A209" r:id="rId369"/>
+    <hyperlink ref="D209" r:id="rId370"/>
+    <hyperlink ref="A210" r:id="rId371"/>
+    <hyperlink ref="A211" r:id="rId372"/>
+    <hyperlink ref="D211" r:id="rId373"/>
+    <hyperlink ref="A212" r:id="rId374"/>
+    <hyperlink ref="D212" r:id="rId375"/>
+    <hyperlink ref="A213" r:id="rId376"/>
+    <hyperlink ref="A214" r:id="rId377"/>
+    <hyperlink ref="D214" r:id="rId378"/>
+    <hyperlink ref="A215" r:id="rId379"/>
+    <hyperlink ref="D215" r:id="rId380"/>
+    <hyperlink ref="A216" r:id="rId381"/>
+    <hyperlink ref="D216" r:id="rId382"/>
+    <hyperlink ref="A217" r:id="rId383"/>
+    <hyperlink ref="D217" r:id="rId384"/>
+    <hyperlink ref="A218" r:id="rId385"/>
+    <hyperlink ref="A219" r:id="rId386"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
